--- a/src/data/dataFile/xlsx/oldWord/oldWord.xlsx
+++ b/src/data/dataFile/xlsx/oldWord/oldWord.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>English</t>
   </si>
@@ -24,6 +24,75 @@
   </si>
   <si>
     <t>PathImage</t>
+  </si>
+  <si>
+    <t>the cetral highlands</t>
+  </si>
+  <si>
+    <t>tây nguyên</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>western europe</t>
+  </si>
+  <si>
+    <t>tây âu</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>western africa</t>
+  </si>
+  <si>
+    <t>tây phi</t>
+  </si>
+  <si>
+    <t>western asia</t>
+  </si>
+  <si>
+    <t>tây á</t>
+  </si>
+  <si>
+    <t>the mekong river delta</t>
+  </si>
+  <si>
+    <t>đồng bằng sông cửu long</t>
+  </si>
+  <si>
+    <t>the northeast</t>
+  </si>
+  <si>
+    <t>đông bắc</t>
+  </si>
+  <si>
+    <t>southern europe</t>
+  </si>
+  <si>
+    <t>nam âu</t>
+  </si>
+  <si>
+    <t>the north central coast</t>
+  </si>
+  <si>
+    <t>bắc trung bộ</t>
+  </si>
+  <si>
+    <t>north america</t>
+  </si>
+  <si>
+    <t>bắc mỹ</t>
+  </si>
+  <si>
+    <t>the south central coast</t>
+  </si>
+  <si>
+    <t>nam trung bộ</t>
   </si>
 </sst>
 </file>
@@ -88,6 +157,146 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/data/dataFile/xlsx/oldWord/oldWord.xlsx
+++ b/src/data/dataFile/xlsx/oldWord/oldWord.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>English</t>
   </si>
@@ -24,30 +24,6 @@
   </si>
   <si>
     <t>PathImage</t>
-  </si>
-  <si>
-    <t>pink</t>
-  </si>
-  <si>
-    <t>màu hồng</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>src\data\dataFile\img\color\pink.png</t>
-  </si>
-  <si>
-    <t>white</t>
-  </si>
-  <si>
-    <t>màu trắng</t>
-  </si>
-  <si>
-    <t>moderate</t>
-  </si>
-  <si>
-    <t>src\data\dataFile\img\color\white.JPG</t>
   </si>
 </sst>
 </file>
@@ -112,34 +88,6 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/src/data/dataFile/xlsx/oldWord/oldWord.xlsx
+++ b/src/data/dataFile/xlsx/oldWord/oldWord.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>English</t>
   </si>
@@ -24,6 +24,156 @@
   </si>
   <si>
     <t>PathImage</t>
+  </si>
+  <si>
+    <t>rabbit</t>
+  </si>
+  <si>
+    <t>thỏ</t>
+  </si>
+  <si>
+    <t>moderate</t>
+  </si>
+  <si>
+    <t>src\data\dataFile\img\animal\rabbit.jpg</t>
+  </si>
+  <si>
+    <t>sister</t>
+  </si>
+  <si>
+    <t>chị/em gái ruột</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>ministry of construction</t>
+  </si>
+  <si>
+    <t>bộ xây dựng</t>
+  </si>
+  <si>
+    <t>guinea pig</t>
+  </si>
+  <si>
+    <t>chuột lang</t>
+  </si>
+  <si>
+    <t>goldfish</t>
+  </si>
+  <si>
+    <t>cá vàng</t>
+  </si>
+  <si>
+    <t>horse</t>
+  </si>
+  <si>
+    <t>ngựa</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
+    <t>chuột</t>
+  </si>
+  <si>
+    <t>src\data\dataFile\img\animal\mouse.jpg</t>
+  </si>
+  <si>
+    <t>hamster</t>
+  </si>
+  <si>
+    <t>chuột cảnh lông xù</t>
+  </si>
+  <si>
+    <t>src\data\dataFile\img\animal\hamster.jpg</t>
+  </si>
+  <si>
+    <t>parrot</t>
+  </si>
+  <si>
+    <t>vẹt</t>
+  </si>
+  <si>
+    <t>cat</t>
+  </si>
+  <si>
+    <t>mèo</t>
+  </si>
+  <si>
+    <t>src\data\dataFile\img\animal\cat.jpg</t>
+  </si>
+  <si>
+    <t>pony</t>
+  </si>
+  <si>
+    <t>ngựa con</t>
+  </si>
+  <si>
+    <t>tropical fish</t>
+  </si>
+  <si>
+    <t>cá nhiệt đới</t>
+  </si>
+  <si>
+    <t>white</t>
+  </si>
+  <si>
+    <t>màu trắng</t>
+  </si>
+  <si>
+    <t>src\data\dataFile\img\color\white.JPG</t>
+  </si>
+  <si>
+    <t>red</t>
+  </si>
+  <si>
+    <t>màu đỏ</t>
+  </si>
+  <si>
+    <t>src\data\dataFile\img\color\red.png</t>
+  </si>
+  <si>
+    <t>blue</t>
+  </si>
+  <si>
+    <t>màu xanh da trời</t>
+  </si>
+  <si>
+    <t>src\data\dataFile\img\color\blue.png</t>
+  </si>
+  <si>
+    <t>black</t>
+  </si>
+  <si>
+    <t>màu đen</t>
+  </si>
+  <si>
+    <t>src\data\dataFile\img\color\black.png</t>
+  </si>
+  <si>
+    <t>purple</t>
+  </si>
+  <si>
+    <t>màu tím</t>
+  </si>
+  <si>
+    <t>src\data\dataFile\img\color\purple.png</t>
+  </si>
+  <si>
+    <t>green</t>
+  </si>
+  <si>
+    <t>màu xanh lá cây</t>
+  </si>
+  <si>
+    <t>src\data\dataFile\img\color\green.jpg</t>
   </si>
 </sst>
 </file>
@@ -88,6 +238,272 @@
         <v>3</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>45</v>
+      </c>
+      <c r="B18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" t="s">
+        <v>52</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
